--- a/Documentation/UseCase_Scenarios/Scenarios.xlsx
+++ b/Documentation/UseCase_Scenarios/Scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px37epx\Documents\TPI\TPI\Documentation\UseCase_Scénarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px37epx\Documents\TPI\TPI\Documentation\UseCase_Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6578AD0D-3E18-48C6-BC8E-531B6CF01016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D3DF2D-FFF9-4BCE-AE23-81DB99F95B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BE2B2B36-AF01-46E3-9AA0-2623B9327E67}"/>
   </bookViews>
@@ -579,15 +579,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -598,6 +589,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,12 +933,12 @@
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -949,36 +949,36 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="D3" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="D4" s="25" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="D4" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="D5" s="26" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="D5" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -996,7 +996,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E23" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1008,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1024,7 +1024,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1032,7 +1032,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1072,7 +1072,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="15"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="16"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="6" t="s">
         <v>19</v>
       </c>

--- a/Documentation/UseCase_Scenarios/Scenarios.xlsx
+++ b/Documentation/UseCase_Scenarios/Scenarios.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px37epx\Documents\TPI\TPI\Documentation\UseCase_Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D3DF2D-FFF9-4BCE-AE23-81DB99F95B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE65B33-2C3F-4E9C-9B3D-40A0869EB02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BE2B2B36-AF01-46E3-9AA0-2623B9327E67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE2B2B36-AF01-46E3-9AA0-2623B9327E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>Identifiant</t>
   </si>
@@ -197,6 +200,118 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Connexion parent</t>
+  </si>
+  <si>
+    <t>Connexion en parent</t>
+  </si>
+  <si>
+    <t>login admin ok</t>
+  </si>
+  <si>
+    <t>ouverture home.php</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>message d'erreur de login "Mauvais nom ou mot de passe"
+ouverture de la page login.php</t>
+  </si>
+  <si>
+    <t>Feuil3</t>
+  </si>
+  <si>
+    <t>Connexion Parent</t>
+  </si>
+  <si>
+    <t>Déconnexion</t>
+  </si>
+  <si>
+    <t>Déconnecter</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Appuit sur le menu "logout"</t>
+  </si>
+  <si>
+    <t>si connecter</t>
+  </si>
+  <si>
+    <t>déconnexion de l'utilisateur
+redirection à la page home.php</t>
+  </si>
+  <si>
+    <t>Feuil4</t>
+  </si>
+  <si>
+    <t>Créer un compte parent</t>
+  </si>
+  <si>
+    <t>Créer un compte</t>
+  </si>
+  <si>
+    <t>remplissage du formulaire register</t>
+  </si>
+  <si>
+    <t>pas connecter</t>
+  </si>
+  <si>
+    <t>l'admin</t>
+  </si>
+  <si>
+    <t>confirme</t>
+  </si>
+  <si>
+    <t>refuse</t>
+  </si>
+  <si>
+    <t>mail de confirmation au parent</t>
+  </si>
+  <si>
+    <t>mail de refus au parent</t>
+  </si>
+  <si>
+    <t>création du compte dans la DB mais pas activé
+demande de confirmation du compte à un admin
+redirection à home.php</t>
+  </si>
+  <si>
+    <t>Feuil5</t>
+  </si>
+  <si>
+    <t>Création de stage</t>
+  </si>
+  <si>
+    <t>Créer un stage</t>
+  </si>
+  <si>
+    <t>ouverture de la page "admin.php"</t>
+  </si>
+  <si>
+    <t>connecter en admin</t>
+  </si>
+  <si>
+    <t>remplissage du formulaire</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>problème de donnée</t>
+  </si>
+  <si>
+    <t>message d'erreur / redirection "admin.php"</t>
+  </si>
+  <si>
+    <t>création du stage dans l'DB</t>
+  </si>
+  <si>
+    <t>Feuil6</t>
   </si>
 </sst>
 </file>
@@ -240,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -558,11 +673,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -597,6 +727,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F34E5B-26EF-4D81-8C32-8E653145F786}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,29 +1112,45 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="D3" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
@@ -995,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ECC75D-E838-4C50-AF23-862BFF860102}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E22:E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,14 +1279,380 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB59FA5A-683A-4AAB-9BC4-6C05C24121E8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="25"/>
+      <c r="D10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="26"/>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EECB5A-D31C-4261-874B-151252B9E20E}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313B3AFB-F246-42F3-A7C7-676E9EB54CD5}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E57C5DB-7F1C-4ECA-8D64-572C5DA66DAC}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/UseCase_Scenarios/Scenarios.xlsx
+++ b/Documentation/UseCase_Scenarios/Scenarios.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px37epx\Documents\TPI\TPI\Documentation\UseCase_Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE65B33-2C3F-4E9C-9B3D-40A0869EB02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20CD4E-D3DE-4CF6-9FEB-24BBFB9C12DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE2B2B36-AF01-46E3-9AA0-2623B9327E67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="786" xr2:uid="{BE2B2B36-AF01-46E3-9AA0-2623B9327E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
-    <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
+    <sheet name="connexion_admin" sheetId="2" r:id="rId2"/>
+    <sheet name="connexion_parent" sheetId="3" r:id="rId3"/>
+    <sheet name="déconnexion" sheetId="4" r:id="rId4"/>
+    <sheet name="créer_compte_parent" sheetId="5" r:id="rId5"/>
+    <sheet name="création_stage" sheetId="6" r:id="rId6"/>
+    <sheet name="inscription_stage" sheetId="8" r:id="rId7"/>
+    <sheet name="ajouter_enseignant" sheetId="9" r:id="rId8"/>
+    <sheet name="modifier_enseignant" sheetId="10" r:id="rId9"/>
+    <sheet name="supprimer_enseignant" sheetId="11" r:id="rId10"/>
+    <sheet name="modifier_parent" sheetId="13" r:id="rId11"/>
+    <sheet name="supprimer_parent" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
   <si>
     <t>Identifiant</t>
   </si>
@@ -89,9 +95,6 @@
     <t>ouverture de home.php / mais pas en admin</t>
   </si>
   <si>
-    <t>Connexion admin</t>
-  </si>
-  <si>
     <t>Priorité</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>nom</t>
-  </si>
-  <si>
-    <t>Feuil2</t>
   </si>
   <si>
     <r>
@@ -202,9 +202,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Connexion parent</t>
-  </si>
-  <si>
     <t>Connexion en parent</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
 ouverture de la page login.php</t>
   </si>
   <si>
-    <t>Feuil3</t>
-  </si>
-  <si>
     <t>Connexion Parent</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
   <si>
     <t>déconnexion de l'utilisateur
 redirection à la page home.php</t>
-  </si>
-  <si>
-    <t>Feuil4</t>
   </si>
   <si>
     <t>Créer un compte parent</t>
@@ -281,9 +272,6 @@
 redirection à home.php</t>
   </si>
   <si>
-    <t>Feuil5</t>
-  </si>
-  <si>
     <t>Création de stage</t>
   </si>
   <si>
@@ -311,7 +299,133 @@
     <t>création du stage dans l'DB</t>
   </si>
   <si>
-    <t>Feuil6</t>
+    <t>connexion_admin</t>
+  </si>
+  <si>
+    <t>connexion_parent</t>
+  </si>
+  <si>
+    <t>déconnexion</t>
+  </si>
+  <si>
+    <t>créer_compte_parent</t>
+  </si>
+  <si>
+    <t>création_stage</t>
+  </si>
+  <si>
+    <t>Inscription à un stage</t>
+  </si>
+  <si>
+    <t>inscription_stage</t>
+  </si>
+  <si>
+    <t>Inscription_stage</t>
+  </si>
+  <si>
+    <t>Inscrire un enfant à un stage</t>
+  </si>
+  <si>
+    <t>ouverture du formulaire d'inscription</t>
+  </si>
+  <si>
+    <t>connecter en parent</t>
+  </si>
+  <si>
+    <t>ouverture de la page "inscription.php"</t>
+  </si>
+  <si>
+    <t>inscription de l'enfant dans le stage</t>
+  </si>
+  <si>
+    <t>message d'erreur / redirection "inscription.php"</t>
+  </si>
+  <si>
+    <t>ouverture de la page admin</t>
+  </si>
+  <si>
+    <t>Ajouter un enseignant</t>
+  </si>
+  <si>
+    <t>création de l'enseignant dans la DB</t>
+  </si>
+  <si>
+    <t>Ajouter_enseignant</t>
+  </si>
+  <si>
+    <t>Création_stage</t>
+  </si>
+  <si>
+    <t>Créer_compte parent</t>
+  </si>
+  <si>
+    <t>Connexion_parent</t>
+  </si>
+  <si>
+    <t>Connexion_admin</t>
+  </si>
+  <si>
+    <t>Modifier_enseignant</t>
+  </si>
+  <si>
+    <t>Modifier un enseignant</t>
+  </si>
+  <si>
+    <t>modification de l'enseignant dans la DB</t>
+  </si>
+  <si>
+    <t>Supprimer_enseignant</t>
+  </si>
+  <si>
+    <t>Supprimer un enseignant</t>
+  </si>
+  <si>
+    <t>suppresion de l'enseignant dans la DB</t>
+  </si>
+  <si>
+    <t>Modifier_parent</t>
+  </si>
+  <si>
+    <t>Modifier un parent</t>
+  </si>
+  <si>
+    <t>modification du parent dans la DB</t>
+  </si>
+  <si>
+    <t>Supprimer_parent</t>
+  </si>
+  <si>
+    <t>Supprimer un parent</t>
+  </si>
+  <si>
+    <t>suppresion du parent dans la DB</t>
+  </si>
+  <si>
+    <t>ajouter_enseignant</t>
+  </si>
+  <si>
+    <t>modifier_enseignant</t>
+  </si>
+  <si>
+    <t>Modification d'un enseignant</t>
+  </si>
+  <si>
+    <t>Suppresion d'un enseignant</t>
+  </si>
+  <si>
+    <t>supprimer_enseignant</t>
+  </si>
+  <si>
+    <t>Modification d'un parent</t>
+  </si>
+  <si>
+    <t>modifier_parent</t>
+  </si>
+  <si>
+    <t>Suppresion d'un parent</t>
+  </si>
+  <si>
+    <t>supprimer_parent</t>
   </si>
 </sst>
 </file>
@@ -692,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -719,15 +833,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -755,11 +860,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F34E5B-26EF-4D81-8C32-8E653145F786}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,10 +1214,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,68 +1225,401 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="9"/>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7"/>
+      <c r="A8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A1FC37-ED6B-4B48-A632-18716C170E65}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4C5A18-732C-4434-8322-F8C32EAF1E1C}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5887B3-C18C-4F05-9A97-1BABC02AB898}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1175,7 +1628,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,10 +1665,10 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1240,7 +1693,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1251,18 +1704,18 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="25"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="35"/>
+      <c r="D11" s="6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="26"/>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>15</v>
@@ -1282,7 +1735,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1319,10 +1772,10 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1347,29 +1800,29 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
-        <v>28</v>
+      <c r="C9" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="25"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>32</v>
+      <c r="E10" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="26"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>15</v>
@@ -1388,7 +1841,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1420,15 +1873,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1444,14 +1897,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>40</v>
+      <c r="C8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1917,106 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E57C5DB-7F1C-4ECA-8D64-572C5DA66DAC}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1488,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1496,15 +2048,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1519,35 +2071,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>51</v>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>50</v>
+      <c r="D10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1558,8 +2110,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E57C5DB-7F1C-4ECA-8D64-572C5DA66DAC}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3DF96-2F96-42DC-BB41-91FCEE4CFDC8}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D3823B-297C-4388-8342-04E4CEA13147}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1568,7 +2219,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="55.140625" customWidth="1"/>
@@ -1579,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1591,19 +2242,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>54</v>
+      <c r="B3" s="24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1619,34 +2270,133 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>55</v>
+      <c r="C8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>60</v>
+      <c r="D10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733D6F86-A37E-4971-89CE-913A11F4A4A5}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/UseCase_Scenarios/Scenarios.xlsx
+++ b/Documentation/UseCase_Scenarios/Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px37epx\Documents\TPI\TPI\Documentation\UseCase_Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20CD4E-D3DE-4CF6-9FEB-24BBFB9C12DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C849514C-A397-4644-BE60-57E97201F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="786" xr2:uid="{BE2B2B36-AF01-46E3-9AA0-2623B9327E67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="786" firstSheet="2" activeTab="11" xr2:uid="{BE2B2B36-AF01-46E3-9AA0-2623B9327E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -860,6 +860,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -874,12 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F34E5B-26EF-4D81-8C32-8E653145F786}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1359,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1393,12 +1393,12 @@
       <c r="D8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -1409,7 +1409,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="31" t="s">
         <v>53</v>
       </c>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1492,12 +1492,12 @@
       <c r="D8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="31" t="s">
         <v>53</v>
       </c>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5887B3-C18C-4F05-9A97-1BABC02AB898}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1557,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1591,12 +1591,12 @@
       <c r="D8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -1607,7 +1607,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="31" t="s">
         <v>53</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1704,7 +1704,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="35"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1811,7 +1811,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="35"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -1995,7 +1995,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="31" t="s">
         <v>43</v>
       </c>
@@ -2083,7 +2083,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -2094,7 +2094,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="31" t="s">
         <v>53</v>
       </c>
@@ -2115,7 +2115,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,12 +2177,12 @@
       <c r="D8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -2193,7 +2193,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="31" t="s">
         <v>53</v>
       </c>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2242,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -2276,12 +2276,12 @@
       <c r="D8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -2292,7 +2292,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="31" t="s">
         <v>53</v>
       </c>
@@ -2313,7 +2313,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2341,7 +2341,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -2375,12 +2375,12 @@
       <c r="D8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -2391,7 +2391,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="31" t="s">
         <v>53</v>
       </c>

--- a/Documentation/UseCase_Scenarios/Scenarios.xlsx
+++ b/Documentation/UseCase_Scenarios/Scenarios.xlsx
@@ -8,23 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px37epx\Documents\TPI\TPI\Documentation\UseCase_Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C849514C-A397-4644-BE60-57E97201F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63EA083-850D-4274-A372-973B8EF66BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="786" firstSheet="2" activeTab="11" xr2:uid="{BE2B2B36-AF01-46E3-9AA0-2623B9327E67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="786" firstSheet="5" activeTab="7" xr2:uid="{BE2B2B36-AF01-46E3-9AA0-2623B9327E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="connexion_admin" sheetId="2" r:id="rId2"/>
-    <sheet name="connexion_parent" sheetId="3" r:id="rId3"/>
-    <sheet name="déconnexion" sheetId="4" r:id="rId4"/>
-    <sheet name="créer_compte_parent" sheetId="5" r:id="rId5"/>
-    <sheet name="création_stage" sheetId="6" r:id="rId6"/>
-    <sheet name="inscription_stage" sheetId="8" r:id="rId7"/>
-    <sheet name="ajouter_enseignant" sheetId="9" r:id="rId8"/>
-    <sheet name="modifier_enseignant" sheetId="10" r:id="rId9"/>
-    <sheet name="supprimer_enseignant" sheetId="11" r:id="rId10"/>
-    <sheet name="modifier_parent" sheetId="13" r:id="rId11"/>
-    <sheet name="supprimer_parent" sheetId="14" r:id="rId12"/>
+    <sheet name="Feuil3" sheetId="16" r:id="rId2"/>
+    <sheet name="connexion_admin" sheetId="2" r:id="rId3"/>
+    <sheet name="connexion_parent" sheetId="3" r:id="rId4"/>
+    <sheet name="déconnexion" sheetId="4" r:id="rId5"/>
+    <sheet name="créer_compte_parent" sheetId="5" r:id="rId6"/>
+    <sheet name="création_stage" sheetId="6" r:id="rId7"/>
+    <sheet name="inscription_stage" sheetId="8" r:id="rId8"/>
+    <sheet name="ajouter_enseignant" sheetId="9" r:id="rId9"/>
+    <sheet name="modifier_enseignant" sheetId="10" r:id="rId10"/>
+    <sheet name="supprimer_enseignant" sheetId="11" r:id="rId11"/>
+    <sheet name="modifier_parent" sheetId="13" r:id="rId12"/>
+    <sheet name="supprimer_parent" sheetId="14" r:id="rId13"/>
+    <sheet name="ajouter_enfant" sheetId="15" r:id="rId14"/>
+    <sheet name="changer_statut" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="113">
   <si>
     <t>Identifiant</t>
   </si>
@@ -426,6 +429,48 @@
   </si>
   <si>
     <t>supprimer_parent</t>
+  </si>
+  <si>
+    <t>Ajouter_enfant</t>
+  </si>
+  <si>
+    <t>Ajouter un enfant</t>
+  </si>
+  <si>
+    <t>ouverture de la page parent</t>
+  </si>
+  <si>
+    <t>ouverture de la page "parent.php"</t>
+  </si>
+  <si>
+    <t>Ajout de l'enfant dans la DB</t>
+  </si>
+  <si>
+    <t>message d'erreur / redirection "parent.php"</t>
+  </si>
+  <si>
+    <t>ajouter_enfant</t>
+  </si>
+  <si>
+    <t>ouverture de la page stage</t>
+  </si>
+  <si>
+    <t>ouverture de la page "stage.php"</t>
+  </si>
+  <si>
+    <t>Changer le statut d'un stage</t>
+  </si>
+  <si>
+    <t>Changer_statut</t>
+  </si>
+  <si>
+    <t>Changement de statut</t>
+  </si>
+  <si>
+    <t>changement du statut dans la DB / envoi de mail aux parents et aux enseignients</t>
+  </si>
+  <si>
+    <t>remplissage du formulaire / selection de l'enfant</t>
   </si>
 </sst>
 </file>
@@ -469,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -749,14 +794,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -769,7 +814,22 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -778,26 +838,67 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -806,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -828,11 +929,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -848,7 +947,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,6 +965,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1195,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F34E5B-26EF-4D81-8C32-8E653145F786}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,13 +1319,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1235,21 +1344,21 @@
       <c r="A3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1257,18 +1366,18 @@
       <c r="A5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1312,12 +1421,20 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1327,6 +1444,105 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733D6F86-A37E-4971-89CE-913A11F4A4A5}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="45"/>
+      <c r="D10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A1FC37-ED6B-4B48-A632-18716C170E65}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1359,10 +1575,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1387,33 +1603,33 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1425,7 +1641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4C5A18-732C-4434-8322-F8C32EAF1E1C}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1458,10 +1674,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1486,33 +1702,33 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1524,12 +1740,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5887B3-C18C-4F05-9A97-1BABC02AB898}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,10 +1773,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1585,33 +1801,231 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065C894A-751E-45E8-883E-569A63C62A9B}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="45"/>
+      <c r="D10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F12188-B7E4-4189-A6F5-500A7AA83040}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="45"/>
+      <c r="D10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1624,6 +2038,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18BC3D3-DD56-42AB-B4EE-6F492B821D69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ECC75D-E838-4C50-AF23-862BFF860102}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1693,7 +2119,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1704,7 +2130,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="36"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +2139,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="37"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1730,7 +2156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB59FA5A-683A-4AAB-9BC4-6C05C24121E8}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1800,7 +2226,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1811,16 +2237,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="36"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="37"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1836,7 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EECB5A-D31C-4261-874B-151252B9E20E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1897,13 +2323,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1912,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313B3AFB-F246-42F3-A7C7-676E9EB54CD5}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1973,33 +2399,33 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2011,7 +2437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E57C5DB-7F1C-4ECA-8D64-572C5DA66DAC}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2072,33 +2498,33 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2110,12 +2536,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3DF96-2F96-42DC-BB41-91FCEE4CFDC8}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,33 +2597,33 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2209,7 +2635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D3823B-297C-4388-8342-04E4CEA13147}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2242,10 +2668,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2270,132 +2696,33 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C9:C10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733D6F86-A37E-4971-89CE-913A11F4A4A5}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="55.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
-      <c r="D10" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>54</v>
       </c>
     </row>
